--- a/medicine/Enfance/Le_Prince_des_voleurs/Le_Prince_des_voleurs.xlsx
+++ b/medicine/Enfance/Le_Prince_des_voleurs/Le_Prince_des_voleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prince des voleurs (titre original : Herr der Diebe) est un roman pour la jeunesse écrit par Cornelia Funke paru aux éditions Hachette en 2003.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette histoire raconte les pérégrinations d'une bande d'enfants vivant seuls à Venise grâce à leurs petits larcins, sous la direction de Scipio, le "Prince des voleurs". Mais tout va basculer quand la tante et mère adoptive de deux d'entre eux, Prosper et Bonifacius, lance à leur recherche un détective  important pour les retrouver après leur fugue. Or, parallèlement, Scipio est contacté avec l'intermédiaire de son principal acheteur du nom de Barbarossa, par un client qui lui offrirait une somme phénoménale, s'il se procurait une chose qui lui manque cruellement. Ces péripéties s'enchaîneront du Palais des Doges au fin fond de la lagune. 
 Les enfants devront affronter Victor le détective, la dame qu'ils veulent voler, la tante de Prosper et Bonifacius ainsi que leur mystérieux acheteur. Un best-seller alliant intrigue, mystère et humour.
@@ -544,7 +558,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Scipio est le Prince des Voleurs, réputé pour avoir forcé tous les grands palais de Venise. C'est lui qui a trouvé à la bande un cinéma désaffecté où ils peuvent dormir. Mais les mystères qui l'entourent sont innombrables.
 Prosper est le grand frère de Bonifacius et l'instigateur de leur fugue. Sa tante voulait s'en débarrasser en le mettant dans un pensionnat. L'idée lui vint de venir à Venise à cause des récits enthousiastes qu'en faisait sa défunte mère.
@@ -581,7 +597,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce livre a été traduit dans de nombreuses langues dont
 en anglais en 2002 sous le titre The Thief Lord</t>
@@ -614,8 +632,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Film
-Dès 2005 est sorti en anglais un film adapté du livre sous le titre The Thief Lord. Coproduction de la Warner Bros. Son réalisateur était Richard Claus.
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 2005 est sorti en anglais un film adapté du livre sous le titre The Thief Lord. Coproduction de la Warner Bros. Son réalisateur était Richard Claus.
 Avec dans les rôles principaux :
 Ida :  Caroline Goodall
 La Mère supérieure : Margaret Tyzack
@@ -628,8 +651,43 @@
 Victor : Jim Carter
 Barbarossa : Alexei Sayle
 Il est sorti en Allemagne le 5 janvier 2006 en version allemande sous le titre Herr der Diebe.
-Théâtre
-Une adaptation théâtrale fut jouée au Jungen Theater à Bonn en 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Prince_des_voleurs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Prince_des_voleurs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une adaptation théâtrale fut jouée au Jungen Theater à Bonn en 2004.
 </t>
         </is>
       </c>
